--- a/data/income_statement/3digits/total/501_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/501_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>501-Sea and coastal passenger water transport</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>501-Sea and coastal passenger water transport</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,17 +841,22 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>908007.7963700001</v>
+        <v>908007.79637</v>
       </c>
       <c r="D5" s="47" t="n">
         <v>1058131.71028</v>
@@ -962,34 +868,39 @@
         <v>1218441.3001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1231317.67694</v>
+        <v>1231630.54797</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1359572.06787</v>
+        <v>1359908.61196</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1487117.34389</v>
+        <v>1492862.35751</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1497505.86836</v>
+        <v>1497531.05737</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>1622951.20932</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1644778.43633</v>
+        <v>1645878.53942</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2121561.58077</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2132152.1816</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1789099.645</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>703821.5994399999</v>
+        <v>703821.59944</v>
       </c>
       <c r="D6" s="48" t="n">
         <v>767776.32201</v>
@@ -1001,31 +912,36 @@
         <v>979288.39273</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1048272.85682</v>
+        <v>1048577.76177</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1219924.68202</v>
+        <v>1220256.64984</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1354046.28374</v>
+        <v>1357037.00436</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1365316.52693</v>
+        <v>1365340.20404</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>1422405.56992</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1423590.33651</v>
+        <v>1424645.88956</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1869270.78597</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1874830.4677</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1634208.369</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>196460.75055</v>
@@ -1040,13 +956,13 @@
         <v>222066.99141</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>162616.47023</v>
+        <v>162622.40243</v>
       </c>
       <c r="H7" s="48" t="n">
         <v>128110.56305</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>118953.73813</v>
+        <v>121686.30402</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>105382.31711</v>
@@ -1058,16 +974,21 @@
         <v>188928.41012</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>215992.76008</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>220594.87926</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>105553.578</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>7725.446380000001</v>
+        <v>7725.44638</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>9883.098199999999</v>
@@ -1079,34 +1000,39 @@
         <v>17085.91596</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>20428.34989</v>
+        <v>20430.38377</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>11536.8228</v>
+        <v>11541.39907</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>14117.32202</v>
+        <v>14139.04913</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>26807.02432</v>
+        <v>26808.53622</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>26250.1196</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>32259.6897</v>
+        <v>32304.23974</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>36298.03472</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>36726.83464</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>49337.698</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>40195.62807</v>
+        <v>40195.62806999999</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>43965.78453</v>
@@ -1124,7 +1050,7 @@
         <v>29364.46177</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>32163.22177</v>
+        <v>32182.14214</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>37627.61648</v>
@@ -1133,16 +1059,21 @@
         <v>27295.17122</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>33303.02228</v>
+        <v>33320.02327</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>33973.12276999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>33996.79182</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>28276.047</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>24908.37432</v>
@@ -1151,7 +1082,7 @@
         <v>27472.05858</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>21744.56028999999</v>
+        <v>21744.56029</v>
       </c>
       <c r="F10" s="48" t="n">
         <v>22090.91235</v>
@@ -1163,7 +1094,7 @@
         <v>24130.99734</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>29717.68356</v>
+        <v>29736.60393</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>36132.0359</v>
@@ -1172,16 +1103,21 @@
         <v>25437.3575</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>31939.78105000001</v>
+        <v>31956.6519</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>32862.94006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>32886.60911</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>27985.256</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>15103.87822</v>
@@ -1193,7 +1129,7 @@
         <v>11650.67037</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>33.30467000000001</v>
+        <v>33.30467</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>126.63755</v>
@@ -1211,16 +1147,21 @@
         <v>1852.23724</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>1363.23384</v>
+        <v>1363.36398</v>
       </c>
       <c r="M11" s="48" t="n">
         <v>1029.42349</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>156.683</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>183.37553</v>
@@ -1255,14 +1196,19 @@
       <c r="M12" s="48" t="n">
         <v>80.75922</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>134.108</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>867812.1683</v>
+        <v>867812.1682999999</v>
       </c>
       <c r="D13" s="47" t="n">
         <v>1014165.92575</v>
@@ -1274,70 +1220,80 @@
         <v>1196193.81012</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1211002.16204</v>
+        <v>1211315.03307</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1330207.6061</v>
+        <v>1330544.15019</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1454954.12212</v>
+        <v>1460680.21537</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1459878.25188</v>
+        <v>1459903.44089</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>1595656.0381</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1611475.41405</v>
+        <v>1612558.51615</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2087588.458</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2098155.38978</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1760823.598</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>761884.55754</v>
+        <v>761884.5575400001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>905970.9648200001</v>
+        <v>905970.9648199999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>913572.8140899999</v>
+        <v>913572.81409</v>
       </c>
       <c r="F14" s="47" t="n">
         <v>964872.4152200001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>974548.29343</v>
+        <v>975185.74709</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1035820.67552</v>
+        <v>1036110.419</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1065725.04657</v>
+        <v>1069898.04529</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1139326.17505</v>
+        <v>1139340.63517</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>1385321.92658</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1423133.41781</v>
+        <v>1424363.26034</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1675937.88011</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1686012.82198</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1461232.67</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>57537.87009</v>
@@ -1346,7 +1302,7 @@
         <v>40943.0671</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>6967.669569999999</v>
+        <v>6967.66957</v>
       </c>
       <c r="F15" s="48" t="n">
         <v>36005.10972</v>
@@ -1358,7 +1314,7 @@
         <v>13766.97139</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>12862.30447</v>
+        <v>12863.03423</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>9023.1065</v>
@@ -1370,73 +1326,83 @@
         <v>12881.79145</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>28057.96065</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>28080.6064</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>18796.186</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>42500.30697</v>
+        <v>42500.30697000001</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>79551.47990000001</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>56088.33921000001</v>
+        <v>56088.33920999999</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>47677.20282999999</v>
+        <v>47677.20283000001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>53141.58734999999</v>
+        <v>53152.29323999999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>68424.04163000001</v>
+        <v>68426.44858000001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>53444.49531000001</v>
+        <v>53543.64331</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>59441.56264</v>
+        <v>59456.02276</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>55178.23012000001</v>
+        <v>55178.23012</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>51705.18205999999</v>
+        <v>51746.93362999999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>58751.24109999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>59455.58372</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>67749.556</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>659531.26691</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>779517.2372299999</v>
+        <v>779517.23723</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>849810.6083000001</v>
+        <v>849810.6083</v>
       </c>
       <c r="F17" s="48" t="n">
         <v>878260.72722</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>862508.43322</v>
+        <v>863135.18099</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>951539.0601900001</v>
+        <v>951826.3967200001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>998557.91666</v>
+        <v>1002631.03762</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>1068247.72771</v>
@@ -1445,16 +1411,21 @@
         <v>1280298.24392</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1354700.04296</v>
+        <v>1355888.13392</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1580627.86754</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1589975.82104</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1358979.034</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>2315.11357</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>8500.810820000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>15707.894</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>105927.61076</v>
@@ -1508,31 +1484,36 @@
         <v>231321.3949</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>236453.86861</v>
+        <v>236129.28598</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>294386.93058</v>
+        <v>294433.73119</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>389229.07555</v>
+        <v>390782.17008</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>320552.07683</v>
+        <v>320562.8057199999</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>210334.11152</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>188341.99624</v>
+        <v>188195.25581</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>411650.5778900001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>412142.5678000001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>299590.928</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>141136.18585</v>
@@ -1547,31 +1528,36 @@
         <v>178079.54712</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>165443.78698</v>
+        <v>165816.57217</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>174968.6269</v>
+        <v>175600.02725</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>192171.88204</v>
+        <v>193450.39054</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>206077.29444</v>
+        <v>206401.75189</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>235103.71918</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>228163.35258</v>
+        <v>228429.94872</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>283271.1471600001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>285467.77819</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>307663.809</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>35.30485</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>32919.81722</v>
@@ -1625,13 +1616,13 @@
         <v>33260.72308</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>27433.31776</v>
+        <v>27454.91065</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>27123.91313</v>
+        <v>27181.53482</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>25252.41898</v>
+        <v>25720.25361</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>27605.89416</v>
@@ -1640,16 +1631,21 @@
         <v>28268.24776</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>28990.20129</v>
+        <v>28991.53994</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>38506.29187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>38533.43429999999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>29826.119</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>108181.06378</v>
@@ -1664,70 +1660,80 @@
         <v>144760.13995</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>137961.83862</v>
+        <v>138313.03092</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>147262.5269</v>
+        <v>147836.30556</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>166855.60068</v>
+        <v>167666.27455</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>178377.68434</v>
+        <v>178702.14179</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>206802.41488</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>199173.15129</v>
+        <v>199438.40878</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>244764.85529</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>246934.34389</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>277837.69</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-35208.57509</v>
+        <v>-35208.57509000001</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>-42351.84654</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>3243.399829999999</v>
+        <v>3243.399829999998</v>
       </c>
       <c r="F24" s="47" t="n">
         <v>53241.84778</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>71010.08163</v>
+        <v>70312.71381</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>119418.30368</v>
+        <v>118833.70394</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>197057.19351</v>
+        <v>197331.77954</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>114474.78239</v>
+        <v>114161.05383</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>-24769.60766</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-39821.35634</v>
+        <v>-40234.69291</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>128379.43073</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>126674.78961</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-8072.881</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>112110.04772</v>
@@ -1742,31 +1748,36 @@
         <v>182766.75253</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>52895.99826000001</v>
+        <v>52993.76806</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>73892.71437</v>
+        <v>74149.29226</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>111082.76015</v>
+        <v>111817.88898</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>96644.11046</v>
+        <v>96811.41686</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>141440.98221</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>345968.42865</v>
+        <v>346557.09052</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>195294.86101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>199788.94035</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>232727.395</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>5813.11809</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>8760.200939999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>22276.075</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>2656.94599</v>
@@ -1814,7 +1830,7 @@
         <v>23.25323</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>759.20877</v>
+        <v>759.2087700000001</v>
       </c>
       <c r="F27" s="48" t="n">
         <v>82.61705000000001</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>9637.021409999999</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>6868.29653</v>
+        <v>6868.296530000001</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>8074.80277</v>
+        <v>8074.802769999999</v>
       </c>
       <c r="F28" s="48" t="n">
         <v>6483.45375</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>6213.4892</v>
+        <v>6304.8215</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>9965.05125</v>
+        <v>10221.62914</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>10334.5594</v>
+        <v>10578.43845</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>13139.44971</v>
+        <v>13156.43512</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>12610.29225</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>21596.83516</v>
+        <v>21616.64725</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>20509.84222</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>21304.6168</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>26509.122</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>3211.70719</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>7019.8055</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>405.989</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>276.26571</v>
@@ -1952,22 +1983,27 @@
         <v>2.41015</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>92.48679</v>
+        <v>92.48679000000001</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>82.92916000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>265.34873</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>829.0813000000001</v>
+        <v>829.0812999999999</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>2030.02859</v>
@@ -1985,7 +2021,7 @@
         <v>161.75708</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>176.47338</v>
+        <v>176.73575</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>320.06693</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>245.10604</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>258.565</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>77724.06666</v>
@@ -2018,28 +2059,33 @@
         <v>32289.55084</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>41066.85669</v>
+        <v>41066.85669000001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>62062.68751</v>
+        <v>62121.9882</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>41133.62107</v>
+        <v>41283.67969</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>67770.16583</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>275961.00339</v>
+        <v>276529.61937</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>103943.19075</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>107596.07004</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>167989.536</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>12.98438</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>12512.58956</v>
@@ -2132,13 +2188,13 @@
         <v>20407.14641</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>9078.027979999999</v>
+        <v>9084.465480000001</v>
       </c>
       <c r="H35" s="48" t="n">
         <v>17037.97485</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>24364.73849</v>
+        <v>24796.68758</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>22816.6327</v>
@@ -2147,19 +2203,24 @@
         <v>28917.89244</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>18496.0645</v>
+        <v>18496.2983</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>54733.7864</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>54780.21187000001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>15288.108</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>48034.37264999999</v>
+        <v>48034.37265</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>43752.12701</v>
@@ -2174,28 +2235,33 @@
         <v>57489.13737</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>43271.0463</v>
+        <v>43271.04629999999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>81044.41985000001</v>
+        <v>81091.54640000001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>62792.34782</v>
+        <v>62914.23665</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>86645.83254999999</v>
+        <v>86645.83255000001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>355721.72612</v>
+        <v>355740.42837</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>178783.30945</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>183988.24568</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>296523.661</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>489.65018</v>
@@ -2230,20 +2296,25 @@
       <c r="M37" s="48" t="n">
         <v>975.30598</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>670.239</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>1183.57357</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>592.0998600000001</v>
+        <v>592.09986</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>926.89514</v>
+        <v>926.8951399999999</v>
       </c>
       <c r="F38" s="48" t="n">
         <v>1302.48662</v>
@@ -2258,28 +2329,33 @@
         <v>214.28559</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>443.0064099999999</v>
+        <v>443.00641</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>1697.6868</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>2620.924039999999</v>
+        <v>2620.92404</v>
       </c>
       <c r="M38" s="48" t="n">
         <v>1460.46205</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>450.753</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>1228.21766</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>406.8734299999999</v>
+        <v>406.87343</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>2682.93855</v>
@@ -2288,7 +2364,7 @@
         <v>44.9284</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>4.305820000000001</v>
+        <v>4.30582</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>33.31099</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>180.0063</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>65180.768</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>36830.34584</v>
@@ -2324,34 +2405,39 @@
         <v>73832.43333</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>48481.10829</v>
+        <v>48481.10828999999</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>33879.85542</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>38654.80400000001</v>
+        <v>38654.804</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>76708.30631</v>
+        <v>76749.66911999999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>54762.36729</v>
+        <v>54864.61956</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>66562.21292999999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>342976.29559</v>
+        <v>342992.5684699999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>135985.45777</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>141190.394</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>226231.249</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>13.1899</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>1265.36056</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1.483</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>116.42593</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>8172.96957</v>
@@ -2450,64 +2546,74 @@
         <v>2469.00305</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>3415.45824</v>
+        <v>3421.22198</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1729.42287</v>
+        <v>1749.05943</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>9359.87744</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>7261.747689999999</v>
+        <v>7264.177060000001</v>
       </c>
       <c r="M43" s="48" t="n">
         <v>38916.71679</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>3989.169</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>42303.33573999999</v>
+        <v>42303.33574</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>40551.54494</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>59328.43220999999</v>
+        <v>59328.43221</v>
       </c>
       <c r="F44" s="47" t="n">
         <v>115834.9737</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>369626.35054</v>
+        <v>369627.37446</v>
       </c>
       <c r="H44" s="47" t="n">
         <v>245750.33963</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>475631.22391</v>
+        <v>475649.74448</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>160681.21095</v>
+        <v>160709.50298</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>203630.13105</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>381977.84582</v>
+        <v>381984.49899</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>86488.58916</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>91453.29274999999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>72408.53999999999</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>11556.93854</v>
@@ -2522,43 +2628,48 @@
         <v>21905.45729</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>33409.48017</v>
+        <v>33410.50409</v>
       </c>
       <c r="H45" s="48" t="n">
         <v>42233.78408999999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>49102.77928</v>
+        <v>49121.29985</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>46112.70343</v>
+        <v>46140.99546</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>63581.61367</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>112404.49047</v>
+        <v>112405.20981</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>73617.10353000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>78581.80712</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>56252.631</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>30746.3972</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>29066.18642999999</v>
+        <v>29066.18643</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>44680.20839</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>93929.51641</v>
+        <v>93929.51641000001</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>336216.87037</v>
@@ -2576,16 +2687,21 @@
         <v>140048.51738</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>269573.35535</v>
+        <v>269579.28918</v>
       </c>
       <c r="M46" s="48" t="n">
         <v>12871.48563</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>16155.909</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>-13436.23576</v>
@@ -2594,43 +2710,48 @@
         <v>-28174.31134</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-316.8775399999991</v>
+        <v>-316.8775400000047</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>68520.20087</v>
+        <v>68520.20086999999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-303209.40802</v>
+        <v>-303810.02996</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-95710.36787999999</v>
+        <v>-96038.38973000001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-248535.6901</v>
+        <v>-247591.62236</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-12354.66592</v>
+        <v>-12651.26894</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-173604.58905</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-431552.49963</v>
+        <v>-431402.5297499999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>58402.39312999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>51022.19153</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-144277.687</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>25873.75111</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>29306.59834999999</v>
+        <v>29306.59835</v>
       </c>
       <c r="E48" s="47" t="n">
         <v>18304.81567</v>
@@ -2639,31 +2760,36 @@
         <v>24177.9134</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>28233.75922</v>
+        <v>28282.77354</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>21620.78298</v>
+        <v>21647.00378</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>17521.28098</v>
+        <v>17546.66708</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>22263.64891</v>
+        <v>22266.95891</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>28715.35099</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>73011.28290000001</v>
+        <v>73018.73439</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>85856.88300999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>86285.92816000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>69596.522</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>56.54122</v>
@@ -2684,13 +2810,13 @@
         <v>245.91372</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>9.693809999999999</v>
+        <v>9.693810000000001</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>254.04458</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>72.63085</v>
+        <v>72.63085000000001</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>24.72697</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>688.92846</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>1086.42</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>25817.20989</v>
@@ -2717,31 +2848,36 @@
         <v>22660.37548</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>26900.13084000001</v>
+        <v>26949.14516</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>21374.86926</v>
+        <v>21401.09006</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>17511.58717</v>
+        <v>17536.97327</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>22009.60433</v>
+        <v>22012.91433</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>28642.72014</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>72986.55593</v>
+        <v>72994.00742000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>85167.95455000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>85596.9997</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>68510.102</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>19854.93283</v>
@@ -2756,31 +2892,36 @@
         <v>19358.78869</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>24276.73535</v>
+        <v>26511.28354</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>48053.20049</v>
+        <v>48815.48478</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>25651.92793</v>
+        <v>26603.32689</v>
       </c>
       <c r="J51" s="47" t="n">
         <v>53706.12945</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>36847.19723</v>
+        <v>36847.19723000001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>57261.47042000001</v>
+        <v>57469.22551999999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>26385.18746</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>27064.97668</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>59549.975</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>1062.87731</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>1033.83711</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>1233.96</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>4194.2565</v>
@@ -2834,7 +2980,7 @@
         <v>3594.44812</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>968.9330799999999</v>
+        <v>968.93308</v>
       </c>
       <c r="H53" s="48" t="n">
         <v>2762.40583</v>
@@ -2852,13 +2998,18 @@
         <v>1999.81786</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>712.5960699999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>923.50751</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>882.321</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>14597.79902</v>
@@ -2873,13 +3024,13 @@
         <v>14229.05367</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>21233.59036</v>
+        <v>23468.13855</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>43709.56937</v>
+        <v>44471.85365999999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>21908.00874</v>
+        <v>22859.4077</v>
       </c>
       <c r="J54" s="48" t="n">
         <v>50908.59110000001</v>
@@ -2888,16 +3039,21 @@
         <v>33205.9377</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>54069.32415</v>
+        <v>54277.07925</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>24638.75428</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>25107.63206</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>57433.694</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>-7417.417479999999</v>
@@ -2909,34 +3065,39 @@
         <v>-101463.48967</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>73339.32558000002</v>
+        <v>73339.32558</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-299252.38415</v>
+        <v>-302038.53996</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-122142.78539</v>
+        <v>-123206.87073</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-256666.33705</v>
+        <v>-256648.28217</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-43797.14646</v>
+        <v>-44090.43948</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>-181736.43529</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-415802.68715</v>
+        <v>-415853.0208800001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>117874.08868</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>110243.14301</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-134231.14</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>3104.59324</v>
@@ -2966,16 +3127,21 @@
         <v>3769.14708</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>8011.63679</v>
+        <v>8049.4245</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>7116.34953</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>7189.41212</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>13100.246</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>-10522.01072</v>
@@ -2987,31 +3153,34 @@
         <v>-104698.32857</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>70139.94513999998</v>
+        <v>70139.94514</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-301635.79039</v>
+        <v>-304421.9462</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-125379.45319</v>
+        <v>-126443.53853</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-261861.62897</v>
+        <v>-261843.57409</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-49316.94145000001</v>
+        <v>-49610.23447</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-185505.58237</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-423814.32394</v>
+        <v>-423902.44538</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>110757.73915</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>103053.73089</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-147331.386</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1022</v>
@@ -3044,28 +3216,31 @@
         <v>984</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>811</v>
+        <v>824</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>794</v>
+        <v>804</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>840</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>835</v>
+        <v>863</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>918</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>